--- a/biology/Botanique/Ophioglossum_lusitanicum/Ophioglossum_lusitanicum.xlsx
+++ b/biology/Botanique/Ophioglossum_lusitanicum/Ophioglossum_lusitanicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophioglossum lusitanicum, l'Ophioglosse du Portugal, est une espèce de fougères de la famille des Ophioglossaceae. Son aspect général ne diffère pas beaucoup des autres espèces du genre. C'est une plante à petit rhizome souterrain fibreux. De une à trois frondes stériles étroitement oblancéolées engainent une à deux épis fertile(s) pédonculé(s), formé(s) de deux rangs de sacs soudés par leurs faces inférieure et supérieure.
 </t>
@@ -511,9 +523,11 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace très petite (entre 3 et 8 cm de hauteur à maturité). La partie souterraine est constituée d'un rhizome fibreux. Les une à trois feuilles ou frondes stériles peuvent atteindre 8 cm et engainent souvent brièvement la partie fertile ; elles peuvent être de forme linéaires-lancéolées ou étroitement lancéolées (de 6 à 15 mm de large). Les une ou deux frondes fertiles sont plus élevées lorsqu'elles arrivent à maturité. Elles sont terminées par un petit épi, linéaire, souvent aigu, distique, qui contient les spores lisses[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace très petite (entre 3 et 8 cm de hauteur à maturité). La partie souterraine est constituée d'un rhizome fibreux. Les une à trois feuilles ou frondes stériles peuvent atteindre 8 cm et engainent souvent brièvement la partie fertile ; elles peuvent être de forme linéaires-lancéolées ou étroitement lancéolées (de 6 à 15 mm de large). Les une ou deux frondes fertiles sont plus élevées lorsqu'elles arrivent à maturité. Elles sont terminées par un petit épi, linéaire, souvent aigu, distique, qui contient les spores lisses,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Ophioglossum vient du grec ophis (οφις)[serpent] et glôssa (γλώσσα) [langue] qui fait allusion à la forme de la partie fertile des feuilles. Le mot lusitanicum fait référence au Portugal.
 </t>
@@ -575,15 +591,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition mondiale
-Cette espèce est originaire de nombreuses régions tempérées à chaudes (et surtout à hivers doux) de l'ancien monde. Son aire de répartition couvre une partie de l'Europe atlantique (Açores, Canaries, Portugal, Espagne, îles Sorlingues et Guernesey (Grande-Bretagne)[3],[4], et les régions méditerranéenne de France, Italie, ex-Yougoslavie, Grèce), certaines zones de l'Afrique (Maroc, Algérie, Tunisie, Tanzanie, Ouganda) et de l'Asie (Turquie, Israël, Géorgie et Inde, notamment Andhra Pradesh, Assam, Bihar, Goa, Jammu-et-Cachemire, Karnataka, Kerala, Madhya Pradesh, Maharashtra, Orissa, Pendjab, Tamil Nadu, Uttar Pradesh, Bengale Occidental).
-On la trouve aussi dans l'ouest de l'Australie, y compris loin des côtes[5].
-Répartition française
-Ophioglossum lusitanicum se trouve dans le sud de la France, en Corse, Alpes-Maritimes, Var, Pyrénées-Orientales, Hautes-Pyrénées, Pyrénées-Atlantiques, Vendée, Morbihan, Finistère.
-Elle a disparu de plusieurs départements : Côtes-d'Armor, Gironde, Landes, Bouches-du-Rhône, Isère[1].
-Habitat
-Cette espèce apprécie les cuvettes sablonneuses et les pelouses des coteaux maritimes, et plus particulièrement les milieux sablonneux liés à l'érosion des grès et rhyolite[2].
-On la trouve sur des sites humides en hiver et au début du printemps, mais plutôt exposés au soleil.
+          <t>Répartition mondiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de nombreuses régions tempérées à chaudes (et surtout à hivers doux) de l'ancien monde. Son aire de répartition couvre une partie de l'Europe atlantique (Açores, Canaries, Portugal, Espagne, îles Sorlingues et Guernesey (Grande-Bretagne) et les régions méditerranéenne de France, Italie, ex-Yougoslavie, Grèce), certaines zones de l'Afrique (Maroc, Algérie, Tunisie, Tanzanie, Ouganda) et de l'Asie (Turquie, Israël, Géorgie et Inde, notamment Andhra Pradesh, Assam, Bihar, Goa, Jammu-et-Cachemire, Karnataka, Kerala, Madhya Pradesh, Maharashtra, Orissa, Pendjab, Tamil Nadu, Uttar Pradesh, Bengale Occidental).
+On la trouve aussi dans l'ouest de l'Australie, y compris loin des côtes.
 </t>
         </is>
       </c>
@@ -609,13 +624,91 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition française</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ophioglossum lusitanicum se trouve dans le sud de la France, en Corse, Alpes-Maritimes, Var, Pyrénées-Orientales, Hautes-Pyrénées, Pyrénées-Atlantiques, Vendée, Morbihan, Finistère.
+Elle a disparu de plusieurs départements : Côtes-d'Armor, Gironde, Landes, Bouches-du-Rhône, Isère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ophioglossum_lusitanicum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophioglossum_lusitanicum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce apprécie les cuvettes sablonneuses et les pelouses des coteaux maritimes, et plus particulièrement les milieux sablonneux liés à l'érosion des grès et rhyolite.
+On la trouve sur des sites humides en hiver et au début du printemps, mais plutôt exposés au soleil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ophioglossum_lusitanicum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ophioglossum_lusitanicum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'IUCN a classé cette espèce dans la catégorie "préoccupation mineure" (LC) du fait de sa vaste répartition au niveau mondial, mais note toutefois son statut préoccupant dans le sud de l'Inde, principalement à cause du développement de l'urbanisation et des exploitations minières[6].
-En France, cette espèce est protégée dans plusieurs régions, telles que l'Aquitaine, le Languedoc-Roussillon, les Pays de la Loire et Provence-Alpes-Côte d'Azur[7].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'IUCN a classé cette espèce dans la catégorie "préoccupation mineure" (LC) du fait de sa vaste répartition au niveau mondial, mais note toutefois son statut préoccupant dans le sud de l'Inde, principalement à cause du développement de l'urbanisation et des exploitations minières.
+En France, cette espèce est protégée dans plusieurs régions, telles que l'Aquitaine, le Languedoc-Roussillon, les Pays de la Loire et Provence-Alpes-Côte d'Azur.
 </t>
         </is>
       </c>
